--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -416,13 +416,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Freelance</v>
+        <v>Party ke paise</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>45805.22928240741</v>
+        <v>45806.22928240741</v>
       </c>
     </row>
     <row r="3">
